--- a/public/files/template/inventory/kiba.xlsx
+++ b/public/files/template/inventory/kiba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>KARTU INVENTARIS BARANG (KIB) A</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>PKM [b.kd_upb]</t>
+  </si>
+  <si>
+    <t>Tanggal Export</t>
+  </si>
+  <si>
+    <t>[b.tanggal_export]</t>
   </si>
 </sst>
 </file>
@@ -472,47 +478,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +803,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,42 +825,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1004,10 +1010,16 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
@@ -1038,83 +1050,83 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="26" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="26" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="23" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -1158,19 +1170,19 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -1431,6 +1443,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
@@ -1447,9 +1461,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>